--- a/extras/circuit/Mozard BOM.xlsx
+++ b/extras/circuit/Mozard BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tof\OneDrive\Arduino\libraries\Mozard\extras\circuit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tofredericks\OneDrive\Documents\Arduino\libraries\Mozard\extras\circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{53816069-F458-47CD-B0CC-0B892A0539FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDC5A21E-CB3F-431B-AA43-1ADD5F4EF9E8}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{53816069-F458-47CD-B0CC-0B892A0539FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B504D71-4B66-496D-AB61-1B4E9084A799}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="2355" windowWidth="21555" windowHeight="11505" xr2:uid="{71DA0C89-7331-4218-9C8B-FCB9348A3D2E}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{71DA0C89-7331-4218-9C8B-FCB9348A3D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t xml:space="preserve">4.7nF/472 CAPACITOR </t>
   </si>
@@ -178,6 +180,12 @@
   </si>
   <si>
     <t>https://tinyurl.com/yywexyto (50k model)</t>
+  </si>
+  <si>
+    <t>668-1136-ND</t>
+  </si>
+  <si>
+    <t>CP1-3525N-ND</t>
   </si>
 </sst>
 </file>
@@ -621,7 +629,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,6 +865,9 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
       <c r="E15" s="3" t="s">
         <v>25</v>
       </c>
@@ -872,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
         <v>39</v>

--- a/extras/circuit/Mozard BOM.xlsx
+++ b/extras/circuit/Mozard BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tofredericks\OneDrive\Documents\Arduino\libraries\Mozard\extras\circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{53816069-F458-47CD-B0CC-0B892A0539FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B504D71-4B66-496D-AB61-1B4E9084A799}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{53816069-F458-47CD-B0CC-0B892A0539FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D9F80AB5-D368-4314-B464-2817A60A78A6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" xr2:uid="{71DA0C89-7331-4218-9C8B-FCB9348A3D2E}"/>
+    <workbookView xWindow="22932" yWindow="300" windowWidth="23256" windowHeight="12804" xr2:uid="{71DA0C89-7331-4218-9C8B-FCB9348A3D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,21 +629,21 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="61.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="61.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
@@ -662,7 +662,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -673,7 +673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
@@ -701,7 +701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
@@ -715,7 +715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -732,7 +732,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -746,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -760,7 +760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
@@ -774,7 +774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -791,7 +791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -808,7 +808,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -822,7 +822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -837,7 +837,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -855,7 +855,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -872,7 +872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>31</v>
       </c>
@@ -889,7 +889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
@@ -906,7 +906,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
@@ -923,7 +923,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
@@ -939,7 +939,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>31</v>
       </c>
@@ -953,14 +953,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E23" s="5"/>
     </row>
   </sheetData>

--- a/extras/circuit/Mozard BOM.xlsx
+++ b/extras/circuit/Mozard BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tofredericks\OneDrive\Documents\Arduino\libraries\Mozard\extras\circuit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tofredericks\Documents\Arduino\libraries\Mozard\extras\circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{53816069-F458-47CD-B0CC-0B892A0539FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D9F80AB5-D368-4314-B464-2817A60A78A6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAE6769-7DD2-4486-AD3A-B4ADCC29A07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="300" windowWidth="23256" windowHeight="12804" xr2:uid="{71DA0C89-7331-4218-9C8B-FCB9348A3D2E}"/>
+    <workbookView xWindow="28800" yWindow="-6780" windowWidth="19200" windowHeight="21600" xr2:uid="{71DA0C89-7331-4218-9C8B-FCB9348A3D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t xml:space="preserve">4.7nF/472 CAPACITOR </t>
   </si>
@@ -125,9 +125,6 @@
     <t xml:space="preserve">FEMALE HEADERS </t>
   </si>
   <si>
-    <t>100k RESISTOR</t>
-  </si>
-  <si>
     <t>MIDI IN</t>
   </si>
   <si>
@@ -140,12 +137,6 @@
     <t>220 RESISTOR</t>
   </si>
   <si>
-    <t>270 RESISTOR</t>
-  </si>
-  <si>
-    <t>S100KQCT-ND</t>
-  </si>
-  <si>
     <t>http://tinyurl.com/yd4p9tap</t>
   </si>
   <si>
@@ -158,12 +149,6 @@
     <t xml:space="preserve">FK16X7R1C106K‎ or FK16X7R1C106M </t>
   </si>
   <si>
-    <t>1*</t>
-  </si>
-  <si>
-    <t>1**</t>
-  </si>
-  <si>
     <t>160-1795-ND</t>
   </si>
   <si>
@@ -186,6 +171,9 @@
   </si>
   <si>
     <t>CP1-3525N-ND</t>
+  </si>
+  <si>
+    <t>3.9k RESISTOR</t>
   </si>
 </sst>
 </file>
@@ -330,9 +318,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -370,7 +358,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -476,7 +464,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -618,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -626,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA084239-29BA-405A-BE8B-E4643C89A048}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -729,15 +717,15 @@
         <v>16</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
+      <c r="B7" s="1">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -778,8 +766,8 @@
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
+      <c r="B10" s="1">
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -788,7 +776,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -805,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -830,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -851,7 +839,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -866,7 +854,7 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>25</v>
@@ -874,94 +862,80 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E21" s="5"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E23" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
